--- a/results/tra_val_results/df_tra_val_all.xlsx
+++ b/results/tra_val_results/df_tra_val_all.xlsx
@@ -436,57 +436,57 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Lags</t>
+          <t xml:space="preserve">Lags             </t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Cutoff Date</t>
+          <t xml:space="preserve">Cutoff Date      </t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Dropout</t>
+          <t xml:space="preserve">Dropout          </t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Neurons</t>
+          <t xml:space="preserve">Neurons          </t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Batch Size</t>
+          <t xml:space="preserve">Batch Size       </t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Learning Rate</t>
+          <t xml:space="preserve">Learning Rate    </t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Optimizer</t>
+          <t xml:space="preserve">Optimizer       </t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Train Loss</t>
+          <t xml:space="preserve">Train Loss       </t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Val Loss</t>
+          <t xml:space="preserve">Val Loss         </t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Train Accu</t>
+          <t xml:space="preserve">Train Accu       </t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Val Accu</t>
+          <t xml:space="preserve">Val Accu         </t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -496,24 +496,24 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Best epoch</t>
+          <t xml:space="preserve">Best epoch       </t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>['2018-01-01']</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D2" t="n">
         <v>20</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>['2018-01-01']</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>32</v>
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.6280895471572876</v>
+        <v>0.6844425797462463</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7135024666786194</v>
+        <v>0.6952321529388428</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6531885266304016</v>
+        <v>0.557763397693634</v>
       </c>
       <c r="K2" t="n">
+        <v>0.5059760808944702</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.5378485918045044</v>
       </c>
-      <c r="L2" t="n">
-        <v>0.56175297498703</v>
-      </c>
       <c r="M2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/results/tra_val_results/df_tra_val_all.xlsx
+++ b/results/tra_val_results/df_tra_val_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,73 +436,93 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lags             </t>
+          <t xml:space="preserve">Lags               </t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cutoff Date      </t>
+          <t xml:space="preserve">Cutoff Date        </t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dropout          </t>
+          <t xml:space="preserve">Dropout            </t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neurons          </t>
+          <t xml:space="preserve">Neurons            </t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Batch Size       </t>
+          <t xml:space="preserve">Batch Size         </t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Learning Rate    </t>
+          <t xml:space="preserve">Learning Rate      </t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Optimizer       </t>
+          <t xml:space="preserve">Optimizer          </t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Train Loss       </t>
+          <t xml:space="preserve">Patience           </t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Val Loss         </t>
+          <t xml:space="preserve">Early_stopping     </t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Train Accu       </t>
+          <t xml:space="preserve">Train Loss         </t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Val Accu         </t>
+          <t xml:space="preserve">Val Loss           </t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Best val_accuracy</t>
+          <t xml:space="preserve">Train Accu         </t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Best epoch       </t>
+          <t xml:space="preserve">Val Accu           </t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Best train_accuracy</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Best valid_accuracy</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Best train_epcoh   </t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Best valid_epoch   </t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -527,22 +547,34 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.6844425797462463</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6952321529388428</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.557763397693634</v>
+        <v>0.6882485151290894</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5059760808944702</v>
+        <v>0.6931040287017822</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5378485918045044</v>
+        <v>0.5471349358558655</v>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>0.5498008131980896</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.5657370686531067</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.5657370686531067</v>
+      </c>
+      <c r="P2" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/results/tra_val_results/df_tra_val_all.xlsx
+++ b/results/tra_val_results/df_tra_val_all.xlsx
@@ -522,7 +522,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
@@ -550,31 +550,31 @@
         <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6882485151290894</v>
+        <v>0.6870133876800537</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6931040287017822</v>
+        <v>0.6989585161209106</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5471349358558655</v>
+        <v>0.5503696799278259</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5498008131980896</v>
+        <v>0.4900398552417755</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5657370686531067</v>
+        <v>0.525896430015564</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5657370686531067</v>
+        <v>0.525896430015564</v>
       </c>
       <c r="P2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results/tra_val_results/df_tra_val_all.xlsx
+++ b/results/tra_val_results/df_tra_val_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,47 +476,52 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Early_stopping     </t>
+          <t xml:space="preserve">Last train_Loss    </t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Train Loss         </t>
+          <t xml:space="preserve">Last talid_Loss    </t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Val Loss           </t>
+          <t>Last train_accuracy</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Train Accu         </t>
+          <t>Last talid_accuracy</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Val Accu           </t>
+          <t>Best train_accuracy</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Best train_accuracy</t>
+          <t>Best valid_accuracy</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Best valid_accuracy</t>
+          <t xml:space="preserve">Best train_epcoh   </t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Best train_epcoh   </t>
+          <t xml:space="preserve">Best valid_epoch   </t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Best valid_epoch   </t>
+          <t xml:space="preserve">Best train_AUC     </t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Best valid_AUC     </t>
         </is>
       </c>
     </row>
@@ -547,34 +552,37 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>21</v>
+        <v>0.6407861709594727</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6870133876800537</v>
+        <v>0.7153360843658447</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6989585161209106</v>
+        <v>0.6140672564506531</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5503696799278259</v>
+        <v>0.532608687877655</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4900398552417755</v>
+        <v>0.6275229454040527</v>
       </c>
       <c r="N2" t="n">
-        <v>0.525896430015564</v>
+        <v>0.5978260636329651</v>
       </c>
       <c r="O2" t="n">
-        <v>0.525896430015564</v>
+        <v>99</v>
       </c>
       <c r="P2" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0.6555545330047607</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.5678571462631226</v>
       </c>
     </row>
   </sheetData>

--- a/results/tra_val_results/df_tra_val_all.xlsx
+++ b/results/tra_val_results/df_tra_val_all.xlsx
@@ -538,7 +538,7 @@
         <v>0.1</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>32</v>
@@ -555,34 +555,34 @@
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6407861709594727</v>
+        <v>0.5656439065933228</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7153360843658447</v>
+        <v>0.9577622413635254</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6140672564506531</v>
+        <v>0.6849955320358276</v>
       </c>
       <c r="L2" t="n">
-        <v>0.532608687877655</v>
+        <v>0.4980079829692841</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6275229454040527</v>
+        <v>0.6849955320358276</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5978260636329651</v>
+        <v>0.525896430015564</v>
       </c>
       <c r="O2" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6555545330047607</v>
+        <v>0.7629712224006653</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5678571462631226</v>
+        <v>0.4988859295845032</v>
       </c>
     </row>
   </sheetData>

--- a/results/tra_val_results/df_tra_val_all.xlsx
+++ b/results/tra_val_results/df_tra_val_all.xlsx
@@ -555,34 +555,34 @@
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5656439065933228</v>
+        <v>0.5802215337753296</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9577622413635254</v>
+        <v>0.8650317192077637</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6849955320358276</v>
+        <v>0.6800979375839233</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4980079829692841</v>
+        <v>0.482071727514267</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6849955320358276</v>
+        <v>0.6800979375839233</v>
       </c>
       <c r="N2" t="n">
-        <v>0.525896430015564</v>
+        <v>0.5498008131980896</v>
       </c>
       <c r="O2" t="n">
         <v>100</v>
       </c>
       <c r="P2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7629712224006653</v>
+        <v>0.7577638626098633</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4988859295845032</v>
+        <v>0.4788006246089935</v>
       </c>
     </row>
   </sheetData>

--- a/results/tra_val_results/df_tra_val_all.xlsx
+++ b/results/tra_val_results/df_tra_val_all.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['2018-01-01']</t>
+          <t>['2005-01-01']</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -555,34 +555,34 @@
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5802215337753296</v>
+        <v>0.5515469908714294</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8650317192077637</v>
+        <v>0.8094793558120728</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6800979375839233</v>
+        <v>0.7024590373039246</v>
       </c>
       <c r="L2" t="n">
-        <v>0.482071727514267</v>
+        <v>0.567460298538208</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6800979375839233</v>
+        <v>0.7204918265342712</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5498008131980896</v>
+        <v>0.567460298538208</v>
       </c>
       <c r="O2" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P2" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7577638626098633</v>
+        <v>0.8029105663299561</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4788006246089935</v>
+        <v>0.5342470407485962</v>
       </c>
     </row>
   </sheetData>

--- a/results/tra_val_results/df_tra_val_all.xlsx
+++ b/results/tra_val_results/df_tra_val_all.xlsx
@@ -436,52 +436,52 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lags               </t>
+          <t>Lags</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cutoff Date        </t>
+          <t>Cutoff Date</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dropout            </t>
+          <t>Dropout</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neurons            </t>
+          <t>Neurons</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Batch Size         </t>
+          <t>Batch Size</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Learning Rate      </t>
+          <t>Learning Rate</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Optimizer          </t>
+          <t>Optimizer</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Patience           </t>
+          <t>Patience</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Last train_Loss    </t>
+          <t>Last train_Loss</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Last talid_Loss    </t>
+          <t>Last valid_Loss</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Last talid_accuracy</t>
+          <t>Last valid_accuracy</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -506,22 +506,22 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Best train_epcoh   </t>
+          <t>Best train_epoch</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Best valid_epoch   </t>
+          <t>Best valid_epoch</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Best train_AUC     </t>
+          <t>Best train_AUC</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Best valid_AUC     </t>
+          <t>Best valid_AUC</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['2005-01-01']</t>
+          <t>['2018-01-01']</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -555,34 +555,34 @@
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5515469908714294</v>
+        <v>0.5802215337753296</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8094793558120728</v>
+        <v>0.8650317192077637</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7024590373039246</v>
+        <v>0.6800979375839233</v>
       </c>
       <c r="L2" t="n">
-        <v>0.567460298538208</v>
+        <v>0.482071727514267</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7204918265342712</v>
+        <v>0.6800979375839233</v>
       </c>
       <c r="N2" t="n">
-        <v>0.567460298538208</v>
+        <v>0.5498008131980896</v>
       </c>
       <c r="O2" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8029105663299561</v>
+        <v>0.7577638626098633</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5342470407485962</v>
+        <v>0.4788006246089935</v>
       </c>
     </row>
   </sheetData>

--- a/results/tra_val_results/df_tra_val_all.xlsx
+++ b/results/tra_val_results/df_tra_val_all.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -529,10 +533,8 @@
       <c r="A2" t="n">
         <v>5</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>['2018-01-01']</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>43520</v>
       </c>
       <c r="C2" t="n">
         <v>0.1</v>
@@ -555,34 +557,34 @@
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5802215337753296</v>
+        <v>0.5243376493453979</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8650317192077637</v>
+        <v>0.8785281181335449</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6800979375839233</v>
+        <v>0.7435387969017029</v>
       </c>
       <c r="L2" t="n">
-        <v>0.482071727514267</v>
+        <v>0.5</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6800979375839233</v>
+        <v>0.7544731497764587</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5498008131980896</v>
+        <v>0.5462962985038757</v>
       </c>
       <c r="O2" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P2" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7577638626098633</v>
+        <v>0.8404927253723145</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4788006246089935</v>
+        <v>0.4909274578094482</v>
       </c>
     </row>
   </sheetData>

--- a/results/tra_val_results/df_tra_val_all.xlsx
+++ b/results/tra_val_results/df_tra_val_all.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -533,8 +529,10 @@
       <c r="A2" t="n">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>43520</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[Timestamp('2019-02-24 00:00:00')]</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>0.1</v>
@@ -557,34 +555,34 @@
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5243376493453979</v>
+        <v>0.6024385690689087</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8785281181335449</v>
+        <v>0.7128087282180786</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7435387969017029</v>
+        <v>0.6586437821388245</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5</v>
+        <v>0.5601851940155029</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7544731497764587</v>
+        <v>0.6594809293746948</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5462962985038757</v>
+        <v>0.6111111044883728</v>
       </c>
       <c r="O2" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P2" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8404927253723145</v>
+        <v>0.7307309508323669</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4909274578094482</v>
+        <v>0.6133415102958679</v>
       </c>
     </row>
   </sheetData>

--- a/results/tra_val_results/df_tra_val_all.xlsx
+++ b/results/tra_val_results/df_tra_val_all.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[Timestamp('2019-02-24 00:00:00')]</t>
+          <t>['2019-02-24']</t>
         </is>
       </c>
       <c r="C2" t="n">

--- a/results/tra_val_results/df_tra_val_all.xlsx
+++ b/results/tra_val_results/df_tra_val_all.xlsx
@@ -555,34 +555,34 @@
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6024385690689087</v>
+        <v>0.6627093553543091</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7128087282180786</v>
+        <v>0.7211738228797913</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6586437821388245</v>
+        <v>0.6236345767974854</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5601851940155029</v>
+        <v>0.5046296119689941</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6594809293746948</v>
+        <v>0.6236345767974854</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6111111044883728</v>
+        <v>0.5555555820465088</v>
       </c>
       <c r="O2" t="n">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7307309508323669</v>
+        <v>0.6613812446594238</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6133415102958679</v>
+        <v>0.5164358615875244</v>
       </c>
     </row>
   </sheetData>

--- a/results/tra_val_results/df_tra_val_all.xlsx
+++ b/results/tra_val_results/df_tra_val_all.xlsx
@@ -538,7 +538,7 @@
         <v>0.1</v>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
         <v>32</v>
@@ -555,34 +555,34 @@
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6627093553543091</v>
+        <v>0.6889660358428955</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7211738228797913</v>
+        <v>0.6852935552597046</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6236345767974854</v>
+        <v>0.5538815855979919</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5046296119689941</v>
+        <v>0.5648148059844971</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6236345767974854</v>
+        <v>0.5538815855979919</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5555555820465088</v>
+        <v>0.5879629850387573</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P2" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6613812446594238</v>
+        <v>0.564469575881958</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5164358615875244</v>
+        <v>0.5800753831863403</v>
       </c>
     </row>
   </sheetData>
